--- a/biology/Biologie cellulaire et moléculaire/Southern_blot/Southern_blot.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Southern_blot/Southern_blot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Southern blot ou southern blot (également appelé transfert d'ADN ou buvardage de Southern)[1] est une méthode de biologie moléculaire permettant l'analyse de l'ADN. Elle a été inventée en 1975 par Edwin Southern, un professeur britannique de biologie moléculaire[2].
+Le Southern blot ou southern blot (également appelé transfert d'ADN ou buvardage de Southern) est une méthode de biologie moléculaire permettant l'analyse de l'ADN. Elle a été inventée en 1975 par Edwin Southern, un professeur britannique de biologie moléculaire.
 C'est ce nom (Southern blot) qui a, par jeu de mots, inspiré l'appellation d'autres techniques : western blot, northern blot et far-eastern blot.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nous partons des fragments d'ADN obtenus par les enzymes de restriction. On applique la technique du transfert de Southern pour fixer les sondes aux fragments leur correspondant (une sonde est un fragment d'ADN auquel on a marqué une base grâce à des composés radioactifs, fluorescents ou un anticorps qui sert à localiser la séquence de l'ADN qui nous intéresse). Le transfert de Southern sert donc à repérer des fragments d'ADN. D'une façon plus générale, ces fragments vont présenter des polymorphismes de restriction. Un polymorphisme de restriction est une variation individuelle de la séquence des bases du génome des eucaryotes modifiant un ou plusieurs sites de restriction.
 Ces polymorphismes de restriction (mutations) vont être intéressants pour déterminer des variations géniques, pour les tests de paternité par exemple.
@@ -545,7 +559,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'ADN est digéré par les enzymes de restriction.
 Les fragments d'ADN sont placés dans les puits d'un gel d'électrophorèse (gel d'agarose à faible concentration → 0,6 à 0,8 %).
@@ -584,7 +600,9 @@
           <t>Résultat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La sonde va révéler la position sur la membrane des fragments d'ADN recherchés. Plusieurs situations peuvent se présenter :
 Les fragments d'ADN sont semblables au lieu d'hybridation de la sonde et à proximité de celui-ci et les fragments sont de même taille : il n'y a pas de polymorphisme.
